--- a/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/invalid/BEFTA_Master_Definition_invalid_retain_hidden_for_subfields_of_complex_type.xlsx
+++ b/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/invalid/BEFTA_Master_Definition_invalid_retain_hidden_for_subfields_of_complex_type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rebeccabaker/HMCTS/Reform/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/invalid/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleynoronha/code/ccd/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/invalid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2E4B5B-9853-F549-9419-63F49BBF6BFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFDEC74-DEC7-AB4A-BEA6-EB5AC72A6C06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="720" windowWidth="33600" windowHeight="19440" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="680" yWindow="720" windowWidth="33600" windowHeight="19440" firstSheet="13" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -41,10 +41,19 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">CaseEvent!$A$21:$T$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">CaseField!$A$3:$IO$115</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -54,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5724" uniqueCount="947">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5720" uniqueCount="947">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -3383,6 +3392,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="16">
@@ -12192,7 +12202,7 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D6A08A61-2CBC-2440-A55B-973E9A2BBBB2}" name="Table21" displayName="Table21" ref="A3:F49" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D6A08A61-2CBC-2440-A55B-973E9A2BBBB2}" name="Table21" displayName="Table21" ref="A3:F48" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{47319793-AA7E-7241-AE2D-C13844517EB1}" name="LiveFrom" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{4BC3F1CC-B8A0-DD42-BBD4-5BD8DB4634CE}" name="LiveTo" dataDxfId="14"/>
@@ -18482,7 +18492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:R166"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="88" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="88" workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
@@ -32817,10 +32827,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:EK49"/>
+  <dimension ref="A1:EK48"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -32967,13 +32977,13 @@
       </c>
       <c r="B8" s="81"/>
       <c r="C8" s="62" t="s">
-        <v>884</v>
-      </c>
-      <c r="D8" s="65" t="s">
-        <v>943</v>
+        <v>882</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>392</v>
       </c>
       <c r="E8" s="134" t="s">
-        <v>938</v>
+        <v>778</v>
       </c>
       <c r="F8" s="115" t="s">
         <v>339</v>
@@ -32987,8 +32997,8 @@
       <c r="C9" s="62" t="s">
         <v>882</v>
       </c>
-      <c r="D9" s="62" t="s">
-        <v>392</v>
+      <c r="D9" s="65" t="s">
+        <v>535</v>
       </c>
       <c r="E9" s="134" t="s">
         <v>778</v>
@@ -33002,11 +33012,11 @@
         <v>42736</v>
       </c>
       <c r="B10" s="81"/>
-      <c r="C10" s="62" t="s">
-        <v>882</v>
-      </c>
-      <c r="D10" s="65" t="s">
-        <v>535</v>
+      <c r="C10" s="65" t="s">
+        <v>883</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>392</v>
       </c>
       <c r="E10" s="134" t="s">
         <v>778</v>
@@ -33015,39 +33025,39 @@
         <v>339</v>
       </c>
     </row>
-    <row r="11" spans="1:141" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="60">
-        <v>42736</v>
-      </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="65" t="s">
+    <row r="11" spans="1:141" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B11" s="84"/>
+      <c r="C11" s="118" t="s">
         <v>883</v>
       </c>
-      <c r="D11" s="62" t="s">
-        <v>392</v>
+      <c r="D11" s="118" t="s">
+        <v>388</v>
       </c>
       <c r="E11" s="134" t="s">
         <v>778</v>
       </c>
-      <c r="F11" s="115" t="s">
+      <c r="F11" s="119" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="12" spans="1:141" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="66">
-        <v>42736</v>
-      </c>
-      <c r="B12" s="84"/>
-      <c r="C12" s="118" t="s">
+    <row r="12" spans="1:141" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B12" s="81"/>
+      <c r="C12" s="120" t="s">
         <v>883</v>
       </c>
-      <c r="D12" s="118" t="s">
-        <v>388</v>
+      <c r="D12" s="120" t="s">
+        <v>373</v>
       </c>
       <c r="E12" s="134" t="s">
         <v>778</v>
       </c>
-      <c r="F12" s="119" t="s">
+      <c r="F12" s="115" t="s">
         <v>339</v>
       </c>
     </row>
@@ -33060,7 +33070,7 @@
         <v>883</v>
       </c>
       <c r="D13" s="120" t="s">
-        <v>373</v>
+        <v>542</v>
       </c>
       <c r="E13" s="134" t="s">
         <v>778</v>
@@ -33078,7 +33088,7 @@
         <v>883</v>
       </c>
       <c r="D14" s="120" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E14" s="134" t="s">
         <v>778</v>
@@ -33087,39 +33097,174 @@
         <v>339</v>
       </c>
     </row>
-    <row r="15" spans="1:141" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="60">
-        <v>42736</v>
-      </c>
-      <c r="B15" s="81"/>
-      <c r="C15" s="120" t="s">
-        <v>883</v>
-      </c>
-      <c r="D15" s="120" t="s">
-        <v>544</v>
-      </c>
-      <c r="E15" s="134" t="s">
+    <row r="15" spans="1:141" s="292" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="344">
+        <v>42736</v>
+      </c>
+      <c r="B15" s="337"/>
+      <c r="C15" s="293" t="s">
+        <v>924</v>
+      </c>
+      <c r="D15" s="293" t="s">
+        <v>926</v>
+      </c>
+      <c r="E15" s="366" t="s">
         <v>778</v>
       </c>
-      <c r="F15" s="115" t="s">
+      <c r="F15" s="362" t="s">
         <v>339</v>
       </c>
+      <c r="G15" s="400"/>
+      <c r="H15" s="400"/>
+      <c r="I15" s="400"/>
+      <c r="J15" s="400"/>
+      <c r="K15" s="400"/>
+      <c r="L15" s="400"/>
+      <c r="M15" s="400"/>
+      <c r="N15" s="400"/>
+      <c r="O15" s="400"/>
+      <c r="P15" s="400"/>
+      <c r="Q15" s="400"/>
+      <c r="R15" s="400"/>
+      <c r="S15" s="400"/>
+      <c r="T15" s="400"/>
+      <c r="U15" s="400"/>
+      <c r="V15" s="400"/>
+      <c r="W15" s="400"/>
+      <c r="X15" s="400"/>
+      <c r="Y15" s="400"/>
+      <c r="Z15" s="400"/>
+      <c r="AA15" s="400"/>
+      <c r="AB15" s="400"/>
+      <c r="AC15" s="400"/>
+      <c r="AD15" s="400"/>
+      <c r="AE15" s="400"/>
+      <c r="AF15" s="400"/>
+      <c r="AG15" s="400"/>
+      <c r="AH15" s="400"/>
+      <c r="AI15" s="400"/>
+      <c r="AJ15" s="400"/>
+      <c r="AK15" s="400"/>
+      <c r="AL15" s="400"/>
+      <c r="AM15" s="400"/>
+      <c r="AN15" s="400"/>
+      <c r="AO15" s="400"/>
+      <c r="AP15" s="400"/>
+      <c r="AQ15" s="400"/>
+      <c r="AR15" s="400"/>
+      <c r="AS15" s="400"/>
+      <c r="AT15" s="400"/>
+      <c r="AU15" s="400"/>
+      <c r="AV15" s="400"/>
+      <c r="AW15" s="400"/>
+      <c r="AX15" s="400"/>
+      <c r="AY15" s="400"/>
+      <c r="AZ15" s="400"/>
+      <c r="BA15" s="400"/>
+      <c r="BB15" s="400"/>
+      <c r="BC15" s="400"/>
+      <c r="BD15" s="400"/>
+      <c r="BE15" s="400"/>
+      <c r="BF15" s="400"/>
+      <c r="BG15" s="400"/>
+      <c r="BH15" s="400"/>
+      <c r="BI15" s="400"/>
+      <c r="BJ15" s="400"/>
+      <c r="BK15" s="400"/>
+      <c r="BL15" s="400"/>
+      <c r="BM15" s="400"/>
+      <c r="BN15" s="400"/>
+      <c r="BO15" s="400"/>
+      <c r="BP15" s="400"/>
+      <c r="BQ15" s="400"/>
+      <c r="BR15" s="400"/>
+      <c r="BS15" s="400"/>
+      <c r="BT15" s="400"/>
+      <c r="BU15" s="400"/>
+      <c r="BV15" s="400"/>
+      <c r="BW15" s="400"/>
+      <c r="BX15" s="400"/>
+      <c r="BY15" s="400"/>
+      <c r="BZ15" s="400"/>
+      <c r="CA15" s="400"/>
+      <c r="CB15" s="400"/>
+      <c r="CC15" s="400"/>
+      <c r="CD15" s="400"/>
+      <c r="CE15" s="400"/>
+      <c r="CF15" s="400"/>
+      <c r="CG15" s="400"/>
+      <c r="CH15" s="400"/>
+      <c r="CI15" s="400"/>
+      <c r="CJ15" s="400"/>
+      <c r="CK15" s="400"/>
+      <c r="CL15" s="400"/>
+      <c r="CM15" s="400"/>
+      <c r="CN15" s="400"/>
+      <c r="CO15" s="400"/>
+      <c r="CP15" s="400"/>
+      <c r="CQ15" s="400"/>
+      <c r="CR15" s="400"/>
+      <c r="CS15" s="400"/>
+      <c r="CT15" s="400"/>
+      <c r="CU15" s="400"/>
+      <c r="CV15" s="400"/>
+      <c r="CW15" s="400"/>
+      <c r="CX15" s="400"/>
+      <c r="CY15" s="400"/>
+      <c r="CZ15" s="400"/>
+      <c r="DA15" s="400"/>
+      <c r="DB15" s="400"/>
+      <c r="DC15" s="400"/>
+      <c r="DD15" s="400"/>
+      <c r="DE15" s="400"/>
+      <c r="DF15" s="400"/>
+      <c r="DG15" s="400"/>
+      <c r="DH15" s="400"/>
+      <c r="DI15" s="400"/>
+      <c r="DJ15" s="400"/>
+      <c r="DK15" s="400"/>
+      <c r="DL15" s="400"/>
+      <c r="DM15" s="400"/>
+      <c r="DN15" s="400"/>
+      <c r="DO15" s="400"/>
+      <c r="DP15" s="400"/>
+      <c r="DQ15" s="400"/>
+      <c r="DR15" s="400"/>
+      <c r="DS15" s="400"/>
+      <c r="DT15" s="400"/>
+      <c r="DU15" s="400"/>
+      <c r="DV15" s="400"/>
+      <c r="DW15" s="400"/>
+      <c r="DX15" s="400"/>
+      <c r="DY15" s="400"/>
+      <c r="DZ15" s="400"/>
+      <c r="EA15" s="400"/>
+      <c r="EB15" s="400"/>
+      <c r="EC15" s="400"/>
+      <c r="ED15" s="400"/>
+      <c r="EE15" s="400"/>
+      <c r="EF15" s="400"/>
+      <c r="EG15" s="400"/>
+      <c r="EH15" s="400"/>
+      <c r="EI15" s="400"/>
+      <c r="EJ15" s="400"/>
+      <c r="EK15" s="400"/>
     </row>
     <row r="16" spans="1:141" s="292" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="344">
-        <v>42736</v>
-      </c>
-      <c r="B16" s="337"/>
+      <c r="A16" s="286">
+        <v>42736</v>
+      </c>
+      <c r="B16" s="289"/>
       <c r="C16" s="293" t="s">
         <v>924</v>
       </c>
       <c r="D16" s="293" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E16" s="366" t="s">
         <v>778</v>
       </c>
-      <c r="F16" s="362" t="s">
+      <c r="F16" s="294" t="s">
         <v>339</v>
       </c>
       <c r="G16" s="400"/>
@@ -33258,166 +33403,31 @@
       <c r="EJ16" s="400"/>
       <c r="EK16" s="400"/>
     </row>
-    <row r="17" spans="1:141" s="292" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="286">
-        <v>42736</v>
-      </c>
-      <c r="B17" s="289"/>
-      <c r="C17" s="293" t="s">
-        <v>924</v>
-      </c>
-      <c r="D17" s="293" t="s">
-        <v>925</v>
-      </c>
-      <c r="E17" s="366" t="s">
+    <row r="17" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B17" s="81"/>
+      <c r="C17" s="65" t="s">
+        <v>885</v>
+      </c>
+      <c r="D17" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E17" s="134" t="s">
         <v>778</v>
       </c>
-      <c r="F17" s="294" t="s">
+      <c r="F17" s="115" t="s">
         <v>339</v>
       </c>
-      <c r="G17" s="400"/>
-      <c r="H17" s="400"/>
-      <c r="I17" s="400"/>
-      <c r="J17" s="400"/>
-      <c r="K17" s="400"/>
-      <c r="L17" s="400"/>
-      <c r="M17" s="400"/>
-      <c r="N17" s="400"/>
-      <c r="O17" s="400"/>
-      <c r="P17" s="400"/>
-      <c r="Q17" s="400"/>
-      <c r="R17" s="400"/>
-      <c r="S17" s="400"/>
-      <c r="T17" s="400"/>
-      <c r="U17" s="400"/>
-      <c r="V17" s="400"/>
-      <c r="W17" s="400"/>
-      <c r="X17" s="400"/>
-      <c r="Y17" s="400"/>
-      <c r="Z17" s="400"/>
-      <c r="AA17" s="400"/>
-      <c r="AB17" s="400"/>
-      <c r="AC17" s="400"/>
-      <c r="AD17" s="400"/>
-      <c r="AE17" s="400"/>
-      <c r="AF17" s="400"/>
-      <c r="AG17" s="400"/>
-      <c r="AH17" s="400"/>
-      <c r="AI17" s="400"/>
-      <c r="AJ17" s="400"/>
-      <c r="AK17" s="400"/>
-      <c r="AL17" s="400"/>
-      <c r="AM17" s="400"/>
-      <c r="AN17" s="400"/>
-      <c r="AO17" s="400"/>
-      <c r="AP17" s="400"/>
-      <c r="AQ17" s="400"/>
-      <c r="AR17" s="400"/>
-      <c r="AS17" s="400"/>
-      <c r="AT17" s="400"/>
-      <c r="AU17" s="400"/>
-      <c r="AV17" s="400"/>
-      <c r="AW17" s="400"/>
-      <c r="AX17" s="400"/>
-      <c r="AY17" s="400"/>
-      <c r="AZ17" s="400"/>
-      <c r="BA17" s="400"/>
-      <c r="BB17" s="400"/>
-      <c r="BC17" s="400"/>
-      <c r="BD17" s="400"/>
-      <c r="BE17" s="400"/>
-      <c r="BF17" s="400"/>
-      <c r="BG17" s="400"/>
-      <c r="BH17" s="400"/>
-      <c r="BI17" s="400"/>
-      <c r="BJ17" s="400"/>
-      <c r="BK17" s="400"/>
-      <c r="BL17" s="400"/>
-      <c r="BM17" s="400"/>
-      <c r="BN17" s="400"/>
-      <c r="BO17" s="400"/>
-      <c r="BP17" s="400"/>
-      <c r="BQ17" s="400"/>
-      <c r="BR17" s="400"/>
-      <c r="BS17" s="400"/>
-      <c r="BT17" s="400"/>
-      <c r="BU17" s="400"/>
-      <c r="BV17" s="400"/>
-      <c r="BW17" s="400"/>
-      <c r="BX17" s="400"/>
-      <c r="BY17" s="400"/>
-      <c r="BZ17" s="400"/>
-      <c r="CA17" s="400"/>
-      <c r="CB17" s="400"/>
-      <c r="CC17" s="400"/>
-      <c r="CD17" s="400"/>
-      <c r="CE17" s="400"/>
-      <c r="CF17" s="400"/>
-      <c r="CG17" s="400"/>
-      <c r="CH17" s="400"/>
-      <c r="CI17" s="400"/>
-      <c r="CJ17" s="400"/>
-      <c r="CK17" s="400"/>
-      <c r="CL17" s="400"/>
-      <c r="CM17" s="400"/>
-      <c r="CN17" s="400"/>
-      <c r="CO17" s="400"/>
-      <c r="CP17" s="400"/>
-      <c r="CQ17" s="400"/>
-      <c r="CR17" s="400"/>
-      <c r="CS17" s="400"/>
-      <c r="CT17" s="400"/>
-      <c r="CU17" s="400"/>
-      <c r="CV17" s="400"/>
-      <c r="CW17" s="400"/>
-      <c r="CX17" s="400"/>
-      <c r="CY17" s="400"/>
-      <c r="CZ17" s="400"/>
-      <c r="DA17" s="400"/>
-      <c r="DB17" s="400"/>
-      <c r="DC17" s="400"/>
-      <c r="DD17" s="400"/>
-      <c r="DE17" s="400"/>
-      <c r="DF17" s="400"/>
-      <c r="DG17" s="400"/>
-      <c r="DH17" s="400"/>
-      <c r="DI17" s="400"/>
-      <c r="DJ17" s="400"/>
-      <c r="DK17" s="400"/>
-      <c r="DL17" s="400"/>
-      <c r="DM17" s="400"/>
-      <c r="DN17" s="400"/>
-      <c r="DO17" s="400"/>
-      <c r="DP17" s="400"/>
-      <c r="DQ17" s="400"/>
-      <c r="DR17" s="400"/>
-      <c r="DS17" s="400"/>
-      <c r="DT17" s="400"/>
-      <c r="DU17" s="400"/>
-      <c r="DV17" s="400"/>
-      <c r="DW17" s="400"/>
-      <c r="DX17" s="400"/>
-      <c r="DY17" s="400"/>
-      <c r="DZ17" s="400"/>
-      <c r="EA17" s="400"/>
-      <c r="EB17" s="400"/>
-      <c r="EC17" s="400"/>
-      <c r="ED17" s="400"/>
-      <c r="EE17" s="400"/>
-      <c r="EF17" s="400"/>
-      <c r="EG17" s="400"/>
-      <c r="EH17" s="400"/>
-      <c r="EI17" s="400"/>
-      <c r="EJ17" s="400"/>
-      <c r="EK17" s="400"/>
-    </row>
-    <row r="18" spans="1:141" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="60">
         <v>42736</v>
       </c>
       <c r="B18" s="81"/>
       <c r="C18" s="65" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="D18" s="62" t="s">
         <v>392</v>
@@ -33429,7 +33439,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="19" spans="1:141" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="60">
         <v>42736</v>
       </c>
@@ -33438,7 +33448,7 @@
         <v>886</v>
       </c>
       <c r="D19" s="62" t="s">
-        <v>392</v>
+        <v>546</v>
       </c>
       <c r="E19" s="134" t="s">
         <v>778</v>
@@ -33447,7 +33457,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="20" spans="1:141" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="60">
         <v>42736</v>
       </c>
@@ -33456,7 +33466,7 @@
         <v>886</v>
       </c>
       <c r="D20" s="62" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E20" s="134" t="s">
         <v>778</v>
@@ -33465,7 +33475,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="21" spans="1:141" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="60">
         <v>42736</v>
       </c>
@@ -33474,7 +33484,7 @@
         <v>886</v>
       </c>
       <c r="D21" s="62" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="E21" s="134" t="s">
         <v>778</v>
@@ -33483,7 +33493,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="22" spans="1:141" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="60">
         <v>42736</v>
       </c>
@@ -33492,7 +33502,7 @@
         <v>886</v>
       </c>
       <c r="D22" s="62" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="E22" s="134" t="s">
         <v>778</v>
@@ -33501,16 +33511,16 @@
         <v>339</v>
       </c>
     </row>
-    <row r="23" spans="1:141" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="60">
         <v>42736</v>
       </c>
       <c r="B23" s="81"/>
-      <c r="C23" s="65" t="s">
-        <v>886</v>
+      <c r="C23" s="62" t="s">
+        <v>887</v>
       </c>
       <c r="D23" s="62" t="s">
-        <v>552</v>
+        <v>392</v>
       </c>
       <c r="E23" s="134" t="s">
         <v>778</v>
@@ -33519,13 +33529,13 @@
         <v>339</v>
       </c>
     </row>
-    <row r="24" spans="1:141" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="60">
         <v>42736</v>
       </c>
       <c r="B24" s="81"/>
       <c r="C24" s="62" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D24" s="62" t="s">
         <v>392</v>
@@ -33537,25 +33547,25 @@
         <v>339</v>
       </c>
     </row>
-    <row r="25" spans="1:141" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="60">
-        <v>42736</v>
-      </c>
-      <c r="B25" s="81"/>
-      <c r="C25" s="62" t="s">
+    <row r="25" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B25" s="84"/>
+      <c r="C25" s="68" t="s">
         <v>888</v>
       </c>
-      <c r="D25" s="62" t="s">
-        <v>392</v>
+      <c r="D25" s="68" t="s">
+        <v>555</v>
       </c>
       <c r="E25" s="134" t="s">
         <v>778</v>
       </c>
-      <c r="F25" s="115" t="s">
+      <c r="F25" s="119" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="26" spans="1:141" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="66">
         <v>42736</v>
       </c>
@@ -33564,7 +33574,7 @@
         <v>888</v>
       </c>
       <c r="D26" s="68" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="E26" s="134" t="s">
         <v>778</v>
@@ -33573,7 +33583,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="27" spans="1:141" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="66">
         <v>42736</v>
       </c>
@@ -33582,7 +33592,7 @@
         <v>888</v>
       </c>
       <c r="D27" s="68" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E27" s="134" t="s">
         <v>778</v>
@@ -33591,7 +33601,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="28" spans="1:141" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="66">
         <v>42736</v>
       </c>
@@ -33600,7 +33610,7 @@
         <v>888</v>
       </c>
       <c r="D28" s="68" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="E28" s="134" t="s">
         <v>778</v>
@@ -33609,43 +33619,43 @@
         <v>339</v>
       </c>
     </row>
-    <row r="29" spans="1:141" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="66">
-        <v>42736</v>
-      </c>
-      <c r="B29" s="84"/>
-      <c r="C29" s="68" t="s">
-        <v>888</v>
-      </c>
-      <c r="D29" s="68" t="s">
-        <v>561</v>
+    <row r="29" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B29" s="81"/>
+      <c r="C29" s="62" t="s">
+        <v>890</v>
+      </c>
+      <c r="D29" s="62" t="s">
+        <v>392</v>
       </c>
       <c r="E29" s="134" t="s">
         <v>778</v>
       </c>
-      <c r="F29" s="119" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="30" spans="1:141" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="60">
-        <v>42736</v>
-      </c>
-      <c r="B30" s="81"/>
-      <c r="C30" s="62" t="s">
-        <v>890</v>
-      </c>
-      <c r="D30" s="62" t="s">
+      <c r="F29" s="115" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B30" s="84"/>
+      <c r="C30" s="84" t="s">
+        <v>889</v>
+      </c>
+      <c r="D30" s="65" t="s">
         <v>392</v>
       </c>
       <c r="E30" s="134" t="s">
         <v>778</v>
       </c>
-      <c r="F30" s="115" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="31" spans="1:141" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F30" s="119" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="66">
         <v>42736</v>
       </c>
@@ -33653,8 +33663,8 @@
       <c r="C31" s="84" t="s">
         <v>889</v>
       </c>
-      <c r="D31" s="65" t="s">
-        <v>392</v>
+      <c r="D31" s="118" t="s">
+        <v>563</v>
       </c>
       <c r="E31" s="134" t="s">
         <v>778</v>
@@ -33663,7 +33673,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="32" spans="1:141" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="66">
         <v>42736</v>
       </c>
@@ -33672,7 +33682,7 @@
         <v>889</v>
       </c>
       <c r="D32" s="118" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="E32" s="134" t="s">
         <v>778</v>
@@ -33686,11 +33696,11 @@
         <v>42736</v>
       </c>
       <c r="B33" s="84"/>
-      <c r="C33" s="84" t="s">
-        <v>889</v>
-      </c>
-      <c r="D33" s="118" t="s">
-        <v>567</v>
+      <c r="C33" s="65" t="s">
+        <v>891</v>
+      </c>
+      <c r="D33" s="68" t="s">
+        <v>392</v>
       </c>
       <c r="E33" s="134" t="s">
         <v>778</v>
@@ -33704,14 +33714,14 @@
         <v>42736</v>
       </c>
       <c r="B34" s="84"/>
-      <c r="C34" s="65" t="s">
-        <v>891</v>
-      </c>
-      <c r="D34" s="68" t="s">
+      <c r="C34" s="68" t="s">
+        <v>894</v>
+      </c>
+      <c r="D34" s="82" t="s">
         <v>392</v>
       </c>
-      <c r="E34" s="134" t="s">
-        <v>778</v>
+      <c r="E34" s="84" t="s">
+        <v>779</v>
       </c>
       <c r="F34" s="119" t="s">
         <v>339</v>
@@ -33726,13 +33736,13 @@
         <v>894</v>
       </c>
       <c r="D35" s="82" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E35" s="84" t="s">
         <v>779</v>
       </c>
       <c r="F35" s="119" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -33744,13 +33754,13 @@
         <v>894</v>
       </c>
       <c r="D36" s="82" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E36" s="84" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F36" s="119" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -33762,16 +33772,16 @@
         <v>894</v>
       </c>
       <c r="D37" s="82" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E37" s="84" t="s">
         <v>780</v>
       </c>
       <c r="F37" s="119" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="66">
         <v>42736</v>
       </c>
@@ -33779,14 +33789,14 @@
       <c r="C38" s="68" t="s">
         <v>894</v>
       </c>
-      <c r="D38" s="82" t="s">
-        <v>393</v>
+      <c r="D38" s="68" t="s">
+        <v>394</v>
       </c>
       <c r="E38" s="84" t="s">
         <v>780</v>
       </c>
       <c r="F38" s="119" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -33801,7 +33811,7 @@
         <v>394</v>
       </c>
       <c r="E39" s="84" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F39" s="119" t="s">
         <v>340</v>
@@ -33812,20 +33822,20 @@
         <v>42736</v>
       </c>
       <c r="B40" s="84"/>
-      <c r="C40" s="68" t="s">
-        <v>894</v>
+      <c r="C40" s="65" t="s">
+        <v>892</v>
       </c>
       <c r="D40" s="68" t="s">
-        <v>394</v>
-      </c>
-      <c r="E40" s="84" t="s">
-        <v>779</v>
+        <v>392</v>
+      </c>
+      <c r="E40" s="134" t="s">
+        <v>778</v>
       </c>
       <c r="F40" s="119" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="66">
         <v>42736</v>
       </c>
@@ -33834,7 +33844,7 @@
         <v>892</v>
       </c>
       <c r="D41" s="68" t="s">
-        <v>392</v>
+        <v>731</v>
       </c>
       <c r="E41" s="134" t="s">
         <v>778</v>
@@ -33844,20 +33854,20 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="66">
-        <v>42736</v>
-      </c>
-      <c r="B42" s="84"/>
-      <c r="C42" s="65" t="s">
+      <c r="A42" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B42" s="90"/>
+      <c r="C42" s="73" t="s">
         <v>892</v>
       </c>
-      <c r="D42" s="68" t="s">
-        <v>731</v>
-      </c>
-      <c r="E42" s="134" t="s">
+      <c r="D42" s="86" t="s">
+        <v>734</v>
+      </c>
+      <c r="E42" s="195" t="s">
         <v>778</v>
       </c>
-      <c r="F42" s="119" t="s">
+      <c r="F42" s="125" t="s">
         <v>339</v>
       </c>
     </row>
@@ -33865,12 +33875,12 @@
       <c r="A43" s="71">
         <v>42736</v>
       </c>
-      <c r="B43" s="90"/>
-      <c r="C43" s="73" t="s">
-        <v>892</v>
-      </c>
-      <c r="D43" s="86" t="s">
-        <v>734</v>
+      <c r="B43" s="69"/>
+      <c r="C43" s="65" t="s">
+        <v>893</v>
+      </c>
+      <c r="D43" s="82" t="s">
+        <v>836</v>
       </c>
       <c r="E43" s="195" t="s">
         <v>778</v>
@@ -33888,7 +33898,7 @@
         <v>893</v>
       </c>
       <c r="D44" s="82" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="E44" s="195" t="s">
         <v>778</v>
@@ -33906,7 +33916,7 @@
         <v>893</v>
       </c>
       <c r="D45" s="82" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="E45" s="195" t="s">
         <v>778</v>
@@ -33919,12 +33929,12 @@
       <c r="A46" s="71">
         <v>42736</v>
       </c>
-      <c r="B46" s="69"/>
+      <c r="B46" s="72"/>
       <c r="C46" s="65" t="s">
         <v>893</v>
       </c>
-      <c r="D46" s="82" t="s">
-        <v>841</v>
+      <c r="D46" s="88" t="s">
+        <v>843</v>
       </c>
       <c r="E46" s="195" t="s">
         <v>778</v>
@@ -33934,56 +33944,38 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="71">
-        <v>42736</v>
-      </c>
-      <c r="B47" s="72"/>
-      <c r="C47" s="65" t="s">
-        <v>893</v>
-      </c>
-      <c r="D47" s="88" t="s">
-        <v>843</v>
-      </c>
-      <c r="E47" s="195" t="s">
-        <v>778</v>
-      </c>
-      <c r="F47" s="125" t="s">
+      <c r="A47" s="263">
+        <v>42736</v>
+      </c>
+      <c r="B47" s="430"/>
+      <c r="C47" s="73" t="s">
+        <v>884</v>
+      </c>
+      <c r="D47" s="265" t="s">
+        <v>392</v>
+      </c>
+      <c r="E47" s="429" t="s">
+        <v>945</v>
+      </c>
+      <c r="F47" s="266" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="263">
-        <v>42736</v>
-      </c>
-      <c r="B48" s="430"/>
-      <c r="C48" s="73" t="s">
+      <c r="A48" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B48" s="81"/>
+      <c r="C48" s="62" t="s">
         <v>884</v>
       </c>
-      <c r="D48" s="265" t="s">
-        <v>392</v>
+      <c r="D48" s="65" t="s">
+        <v>943</v>
       </c>
       <c r="E48" s="429" t="s">
         <v>945</v>
       </c>
-      <c r="F48" s="266" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="60">
-        <v>42736</v>
-      </c>
-      <c r="B49" s="81"/>
-      <c r="C49" s="62" t="s">
-        <v>884</v>
-      </c>
-      <c r="D49" s="65" t="s">
-        <v>943</v>
-      </c>
-      <c r="E49" s="429" t="s">
-        <v>945</v>
-      </c>
-      <c r="F49" s="115" t="s">
+      <c r="F48" s="115" t="s">
         <v>339</v>
       </c>
     </row>
